--- a/docs/panel_comparison.xlsx
+++ b/docs/panel_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tesis_cyv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3F1C77-314F-4FF3-98EF-05025B59214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00589C1E-D9D5-4636-B127-FEC0918EFCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
+    <workbookView xWindow="28680" yWindow="-2490" windowWidth="29040" windowHeight="15720" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
   <si>
     <t>Variable</t>
   </si>
@@ -566,14 +566,38 @@
     <t>2014-2015</t>
   </si>
   <si>
-    <t>2013-2014</t>
+    <t>Panel bianual t1-t2 (caracteristicas de t1)</t>
+  </si>
+  <si>
+    <t>Sumaria</t>
+  </si>
+  <si>
+    <t>Modulo 100</t>
+  </si>
+  <si>
+    <t>Modulo 400</t>
+  </si>
+  <si>
+    <t>Modulo 300</t>
+  </si>
+  <si>
+    <t>Modulo 500</t>
+  </si>
+  <si>
+    <t>Modulo 200</t>
+  </si>
+  <si>
+    <t>Modulo 500 (base)</t>
+  </si>
+  <si>
+    <t>creada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,16 +619,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -612,20 +657,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -954,752 +1050,1579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="A41:A56"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A11:A33"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/panel_comparison.xlsx
+++ b/docs/panel_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tesis_cyv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00589C1E-D9D5-4636-B127-FEC0918EFCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833D05D3-F44D-401F-A4C6-B5726E83C449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2490" windowWidth="29040" windowHeight="15720" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="526">
   <si>
     <t>Variable</t>
   </si>
@@ -590,7 +590,1030 @@
     <t>Modulo 500 (base)</t>
   </si>
   <si>
-    <t>creada</t>
+    <t>p101_18</t>
+  </si>
+  <si>
+    <t>p102_18</t>
+  </si>
+  <si>
+    <t>p103_18</t>
+  </si>
+  <si>
+    <t>p103a_18</t>
+  </si>
+  <si>
+    <t>p104_18</t>
+  </si>
+  <si>
+    <t>p104a_18</t>
+  </si>
+  <si>
+    <t>p105a_18</t>
+  </si>
+  <si>
+    <t>p105b_18</t>
+  </si>
+  <si>
+    <t>p106_18</t>
+  </si>
+  <si>
+    <t>p106b_18</t>
+  </si>
+  <si>
+    <t>p107b1_18</t>
+  </si>
+  <si>
+    <t>p110_18</t>
+  </si>
+  <si>
+    <t>p110a1_18</t>
+  </si>
+  <si>
+    <t>p110c_18</t>
+  </si>
+  <si>
+    <t>p111a_18</t>
+  </si>
+  <si>
+    <t>p112a_18</t>
+  </si>
+  <si>
+    <t>p1142_18</t>
+  </si>
+  <si>
+    <t>p1144_18</t>
+  </si>
+  <si>
+    <t>p401f_18</t>
+  </si>
+  <si>
+    <t>p401g1_18</t>
+  </si>
+  <si>
+    <t>p401_18</t>
+  </si>
+  <si>
+    <t>p4021_18</t>
+  </si>
+  <si>
+    <t>p4022_18</t>
+  </si>
+  <si>
+    <t>p4023_18</t>
+  </si>
+  <si>
+    <t>p4024_18</t>
+  </si>
+  <si>
+    <t>p4025_18</t>
+  </si>
+  <si>
+    <t>p4191_18</t>
+  </si>
+  <si>
+    <t>p4192_18</t>
+  </si>
+  <si>
+    <t>p4193_18</t>
+  </si>
+  <si>
+    <t>p4194_18</t>
+  </si>
+  <si>
+    <t>p4195_18</t>
+  </si>
+  <si>
+    <t>p4196_18</t>
+  </si>
+  <si>
+    <t>p4197_18</t>
+  </si>
+  <si>
+    <t>p4198_18</t>
+  </si>
+  <si>
+    <t>p300a_18</t>
+  </si>
+  <si>
+    <t>p301a_18</t>
+  </si>
+  <si>
+    <t>p302_18</t>
+  </si>
+  <si>
+    <t>p313_18</t>
+  </si>
+  <si>
+    <t>p314a_18</t>
+  </si>
+  <si>
+    <t>p316b_18</t>
+  </si>
+  <si>
+    <t>p501_18</t>
+  </si>
+  <si>
+    <t>p507_18</t>
+  </si>
+  <si>
+    <t>p510_18</t>
+  </si>
+  <si>
+    <t>p510a1_18</t>
+  </si>
+  <si>
+    <t>p510b_18</t>
+  </si>
+  <si>
+    <t>p511a_18</t>
+  </si>
+  <si>
+    <t>p512a_18</t>
+  </si>
+  <si>
+    <t>p513t_18</t>
+  </si>
+  <si>
+    <t>p513a1_18</t>
+  </si>
+  <si>
+    <t>p513a2_18</t>
+  </si>
+  <si>
+    <t>p514_18</t>
+  </si>
+  <si>
+    <t>p519_18</t>
+  </si>
+  <si>
+    <t>p520_18</t>
+  </si>
+  <si>
+    <t>p521a_18</t>
+  </si>
+  <si>
+    <t>p521c_18</t>
+  </si>
+  <si>
+    <t>p524a1_18</t>
+  </si>
+  <si>
+    <t>p524a2_18</t>
+  </si>
+  <si>
+    <t>p528_18</t>
+  </si>
+  <si>
+    <t>p530a_18</t>
+  </si>
+  <si>
+    <t>p530b_18</t>
+  </si>
+  <si>
+    <t>p535_18</t>
+  </si>
+  <si>
+    <t>p558c_18</t>
+  </si>
+  <si>
+    <t>p558d_18</t>
+  </si>
+  <si>
+    <t>p207_18</t>
+  </si>
+  <si>
+    <t>p208a_18</t>
+  </si>
+  <si>
+    <t>p209_18</t>
+  </si>
+  <si>
+    <t>conglome_18</t>
+  </si>
+  <si>
+    <t>vivienda_18</t>
+  </si>
+  <si>
+    <t>hogar_18</t>
+  </si>
+  <si>
+    <t>codperso_18</t>
+  </si>
+  <si>
+    <t>creada a partir de ocupinf</t>
+  </si>
+  <si>
+    <t>percepho_18</t>
+  </si>
+  <si>
+    <t>mieperho_18</t>
+  </si>
+  <si>
+    <t>ingbruhd_18</t>
+  </si>
+  <si>
+    <t>ingindhd_18</t>
+  </si>
+  <si>
+    <t>insedthd_18</t>
+  </si>
+  <si>
+    <t>ingseihd_18</t>
+  </si>
+  <si>
+    <t>ingexthd_18</t>
+  </si>
+  <si>
+    <t>ingtrahd_18</t>
+  </si>
+  <si>
+    <t>ingtexhd_18</t>
+  </si>
+  <si>
+    <t>ingrenhd_18</t>
+  </si>
+  <si>
+    <t>ingmo1hd_18</t>
+  </si>
+  <si>
+    <t>inghog1d_18</t>
+  </si>
+  <si>
+    <t>gashog1d_18</t>
+  </si>
+  <si>
+    <t>estrsocial_18</t>
+  </si>
+  <si>
+    <t>linea_18</t>
+  </si>
+  <si>
+    <t>pobreza_18</t>
+  </si>
+  <si>
+    <t>p207_17</t>
+  </si>
+  <si>
+    <t>p208a_17</t>
+  </si>
+  <si>
+    <t>p209_17</t>
+  </si>
+  <si>
+    <t>p303_19</t>
+  </si>
+  <si>
+    <t>p303_18</t>
+  </si>
+  <si>
+    <t>conglome_17</t>
+  </si>
+  <si>
+    <t>vivienda_17</t>
+  </si>
+  <si>
+    <t>hogar_17</t>
+  </si>
+  <si>
+    <t>codperso_17</t>
+  </si>
+  <si>
+    <t>p501_17</t>
+  </si>
+  <si>
+    <t>p507_17</t>
+  </si>
+  <si>
+    <t>p510_17</t>
+  </si>
+  <si>
+    <t>p510a1_17</t>
+  </si>
+  <si>
+    <t>p510b_17</t>
+  </si>
+  <si>
+    <t>p511a_17</t>
+  </si>
+  <si>
+    <t>p512a_17</t>
+  </si>
+  <si>
+    <t>p513t_17</t>
+  </si>
+  <si>
+    <t>p513a1_17</t>
+  </si>
+  <si>
+    <t>p513a2_17</t>
+  </si>
+  <si>
+    <t>p514_17</t>
+  </si>
+  <si>
+    <t>p519_17</t>
+  </si>
+  <si>
+    <t>p520_17</t>
+  </si>
+  <si>
+    <t>p521a_17</t>
+  </si>
+  <si>
+    <t>p521c_17</t>
+  </si>
+  <si>
+    <t>p524a1_17</t>
+  </si>
+  <si>
+    <t>p524a2_17</t>
+  </si>
+  <si>
+    <t>p528_17</t>
+  </si>
+  <si>
+    <t>p530a_17</t>
+  </si>
+  <si>
+    <t>p530b_17</t>
+  </si>
+  <si>
+    <t>p535_17</t>
+  </si>
+  <si>
+    <t>p558c_17</t>
+  </si>
+  <si>
+    <t>p558d_17</t>
+  </si>
+  <si>
+    <t>p300a_17</t>
+  </si>
+  <si>
+    <t>p301a_17</t>
+  </si>
+  <si>
+    <t>p302_17</t>
+  </si>
+  <si>
+    <t>p303_17</t>
+  </si>
+  <si>
+    <t>p313_17</t>
+  </si>
+  <si>
+    <t>p314a_17</t>
+  </si>
+  <si>
+    <t>p401f_17</t>
+  </si>
+  <si>
+    <t>p401_17</t>
+  </si>
+  <si>
+    <t>p4021_17</t>
+  </si>
+  <si>
+    <t>p4022_17</t>
+  </si>
+  <si>
+    <t>p4023_17</t>
+  </si>
+  <si>
+    <t>p4024_17</t>
+  </si>
+  <si>
+    <t>p4025_17</t>
+  </si>
+  <si>
+    <t>p4191_17</t>
+  </si>
+  <si>
+    <t>p4192_17</t>
+  </si>
+  <si>
+    <t>p4193_17</t>
+  </si>
+  <si>
+    <t>p4194_17</t>
+  </si>
+  <si>
+    <t>p4195_17</t>
+  </si>
+  <si>
+    <t>p4196_17</t>
+  </si>
+  <si>
+    <t>p4197_17</t>
+  </si>
+  <si>
+    <t>p4198_17</t>
+  </si>
+  <si>
+    <t>p101_17</t>
+  </si>
+  <si>
+    <t>p102_17</t>
+  </si>
+  <si>
+    <t>p103_17</t>
+  </si>
+  <si>
+    <t>p103a_17</t>
+  </si>
+  <si>
+    <t>p104_17</t>
+  </si>
+  <si>
+    <t>p104a_17</t>
+  </si>
+  <si>
+    <t>p105a_17</t>
+  </si>
+  <si>
+    <t>p105b_17</t>
+  </si>
+  <si>
+    <t>p106_17</t>
+  </si>
+  <si>
+    <t>p106b_17</t>
+  </si>
+  <si>
+    <t>p107b1_17</t>
+  </si>
+  <si>
+    <t>p110_17</t>
+  </si>
+  <si>
+    <t>p110a1_17</t>
+  </si>
+  <si>
+    <t>p110c_17</t>
+  </si>
+  <si>
+    <t>p111a_17</t>
+  </si>
+  <si>
+    <t>p112a_17</t>
+  </si>
+  <si>
+    <t>p1142_17</t>
+  </si>
+  <si>
+    <t>p1144_17</t>
+  </si>
+  <si>
+    <t>percepho_17</t>
+  </si>
+  <si>
+    <t>mieperho_17</t>
+  </si>
+  <si>
+    <t>ingbruhd_17</t>
+  </si>
+  <si>
+    <t>ingindhd_17</t>
+  </si>
+  <si>
+    <t>insedthd_17</t>
+  </si>
+  <si>
+    <t>ingseihd_17</t>
+  </si>
+  <si>
+    <t>ingexthd_17</t>
+  </si>
+  <si>
+    <t>ingtrahd_17</t>
+  </si>
+  <si>
+    <t>ingtexhd_17</t>
+  </si>
+  <si>
+    <t>ingrenhd_17</t>
+  </si>
+  <si>
+    <t>ingmo1hd_17</t>
+  </si>
+  <si>
+    <t>inghog1d_17</t>
+  </si>
+  <si>
+    <t>gashog1d_17</t>
+  </si>
+  <si>
+    <t>estrsocial_17</t>
+  </si>
+  <si>
+    <t>linea_17</t>
+  </si>
+  <si>
+    <t>pobreza_17</t>
+  </si>
+  <si>
+    <t>conglome_16</t>
+  </si>
+  <si>
+    <t>vivienda_16</t>
+  </si>
+  <si>
+    <t>hogar_16</t>
+  </si>
+  <si>
+    <t>codperso_16</t>
+  </si>
+  <si>
+    <t>p207_16</t>
+  </si>
+  <si>
+    <t>p208a_16</t>
+  </si>
+  <si>
+    <t>p209_16</t>
+  </si>
+  <si>
+    <t>p501_16</t>
+  </si>
+  <si>
+    <t>p507_16</t>
+  </si>
+  <si>
+    <t>p510_16</t>
+  </si>
+  <si>
+    <t>p510a1_16</t>
+  </si>
+  <si>
+    <t>p510b_16</t>
+  </si>
+  <si>
+    <t>p511a_16</t>
+  </si>
+  <si>
+    <t>p512a_16</t>
+  </si>
+  <si>
+    <t>p513t_16</t>
+  </si>
+  <si>
+    <t>p513a1_16</t>
+  </si>
+  <si>
+    <t>p513a2_16</t>
+  </si>
+  <si>
+    <t>p514_16</t>
+  </si>
+  <si>
+    <t>p519_16</t>
+  </si>
+  <si>
+    <t>p520_16</t>
+  </si>
+  <si>
+    <t>p521a_16</t>
+  </si>
+  <si>
+    <t>p521c_16</t>
+  </si>
+  <si>
+    <t>p524a1_16</t>
+  </si>
+  <si>
+    <t>p524a2_16</t>
+  </si>
+  <si>
+    <t>p528_16</t>
+  </si>
+  <si>
+    <t>p530a_16</t>
+  </si>
+  <si>
+    <t>p530b_16</t>
+  </si>
+  <si>
+    <t>p535_16</t>
+  </si>
+  <si>
+    <t>p558c_16</t>
+  </si>
+  <si>
+    <t>p558d_16</t>
+  </si>
+  <si>
+    <t>p300a_16</t>
+  </si>
+  <si>
+    <t>p301a_16</t>
+  </si>
+  <si>
+    <t>p302_16</t>
+  </si>
+  <si>
+    <t>p303_16</t>
+  </si>
+  <si>
+    <t>p313_16</t>
+  </si>
+  <si>
+    <t>p314a_16</t>
+  </si>
+  <si>
+    <t>p401f_16</t>
+  </si>
+  <si>
+    <t>p401_16</t>
+  </si>
+  <si>
+    <t>p4021_16</t>
+  </si>
+  <si>
+    <t>p4022_16</t>
+  </si>
+  <si>
+    <t>p4023_16</t>
+  </si>
+  <si>
+    <t>p4024_16</t>
+  </si>
+  <si>
+    <t>p4025_16</t>
+  </si>
+  <si>
+    <t>p4191_16</t>
+  </si>
+  <si>
+    <t>p4192_16</t>
+  </si>
+  <si>
+    <t>p4193_16</t>
+  </si>
+  <si>
+    <t>p4194_16</t>
+  </si>
+  <si>
+    <t>p4195_16</t>
+  </si>
+  <si>
+    <t>p4196_16</t>
+  </si>
+  <si>
+    <t>p4197_16</t>
+  </si>
+  <si>
+    <t>p4198_16</t>
+  </si>
+  <si>
+    <t>p101_16</t>
+  </si>
+  <si>
+    <t>p102_16</t>
+  </si>
+  <si>
+    <t>p103_16</t>
+  </si>
+  <si>
+    <t>p103a_16</t>
+  </si>
+  <si>
+    <t>p104_16</t>
+  </si>
+  <si>
+    <t>p104a_16</t>
+  </si>
+  <si>
+    <t>p105a_16</t>
+  </si>
+  <si>
+    <t>p105b_16</t>
+  </si>
+  <si>
+    <t>p106_16</t>
+  </si>
+  <si>
+    <t>p106b_16</t>
+  </si>
+  <si>
+    <t>p107b1_16</t>
+  </si>
+  <si>
+    <t>p110_16</t>
+  </si>
+  <si>
+    <t>p110a1_16</t>
+  </si>
+  <si>
+    <t>p111a_16</t>
+  </si>
+  <si>
+    <t>p112a_16</t>
+  </si>
+  <si>
+    <t>p1142_16</t>
+  </si>
+  <si>
+    <t>p1144_16</t>
+  </si>
+  <si>
+    <t>percepho_16</t>
+  </si>
+  <si>
+    <t>mieperho_16</t>
+  </si>
+  <si>
+    <t>ingbruhd_16</t>
+  </si>
+  <si>
+    <t>ingindhd_16</t>
+  </si>
+  <si>
+    <t>insedthd_16</t>
+  </si>
+  <si>
+    <t>ingseihd_16</t>
+  </si>
+  <si>
+    <t>ingexthd_16</t>
+  </si>
+  <si>
+    <t>ingtrahd_16</t>
+  </si>
+  <si>
+    <t>ingtexhd_16</t>
+  </si>
+  <si>
+    <t>ingrenhd_16</t>
+  </si>
+  <si>
+    <t>ingmo1hd_16</t>
+  </si>
+  <si>
+    <t>inghog1d_16</t>
+  </si>
+  <si>
+    <t>gashog1d_16</t>
+  </si>
+  <si>
+    <t>estrsocial_16</t>
+  </si>
+  <si>
+    <t>linea_16</t>
+  </si>
+  <si>
+    <t>pobreza_16</t>
+  </si>
+  <si>
+    <t>conglome_15</t>
+  </si>
+  <si>
+    <t>vivienda_15</t>
+  </si>
+  <si>
+    <t>hogar_15</t>
+  </si>
+  <si>
+    <t>codperso_15</t>
+  </si>
+  <si>
+    <t>p207_15</t>
+  </si>
+  <si>
+    <t>p208a_15</t>
+  </si>
+  <si>
+    <t>p209_15</t>
+  </si>
+  <si>
+    <t>p501_15</t>
+  </si>
+  <si>
+    <t>p507_15</t>
+  </si>
+  <si>
+    <t>p510_15</t>
+  </si>
+  <si>
+    <t>p510a1_15</t>
+  </si>
+  <si>
+    <t>p510b_15</t>
+  </si>
+  <si>
+    <t>p511a_15</t>
+  </si>
+  <si>
+    <t>p512a_15</t>
+  </si>
+  <si>
+    <t>p513t_15</t>
+  </si>
+  <si>
+    <t>p513a1_15</t>
+  </si>
+  <si>
+    <t>p513a2_15</t>
+  </si>
+  <si>
+    <t>p514_15</t>
+  </si>
+  <si>
+    <t>p519_15</t>
+  </si>
+  <si>
+    <t>p520_15</t>
+  </si>
+  <si>
+    <t>p521a_15</t>
+  </si>
+  <si>
+    <t>p521c_15</t>
+  </si>
+  <si>
+    <t>p524a1_15</t>
+  </si>
+  <si>
+    <t>p524a2_15</t>
+  </si>
+  <si>
+    <t>p528_15</t>
+  </si>
+  <si>
+    <t>p530a_15</t>
+  </si>
+  <si>
+    <t>p530b_15</t>
+  </si>
+  <si>
+    <t>p535_15</t>
+  </si>
+  <si>
+    <t>p558c_15</t>
+  </si>
+  <si>
+    <t>p558d_15</t>
+  </si>
+  <si>
+    <t>p300a_15</t>
+  </si>
+  <si>
+    <t>p301a_15</t>
+  </si>
+  <si>
+    <t>p302_15</t>
+  </si>
+  <si>
+    <t>p303_15</t>
+  </si>
+  <si>
+    <t>p313_15</t>
+  </si>
+  <si>
+    <t>p314a_15</t>
+  </si>
+  <si>
+    <t>p401f_15</t>
+  </si>
+  <si>
+    <t>p401_15</t>
+  </si>
+  <si>
+    <t>p4021_15</t>
+  </si>
+  <si>
+    <t>p4022_15</t>
+  </si>
+  <si>
+    <t>p4023_15</t>
+  </si>
+  <si>
+    <t>p4024_15</t>
+  </si>
+  <si>
+    <t>p4025_15</t>
+  </si>
+  <si>
+    <t>p4191_15</t>
+  </si>
+  <si>
+    <t>p4192_15</t>
+  </si>
+  <si>
+    <t>p4193_15</t>
+  </si>
+  <si>
+    <t>p4194_15</t>
+  </si>
+  <si>
+    <t>p4195_15</t>
+  </si>
+  <si>
+    <t>p4196_15</t>
+  </si>
+  <si>
+    <t>p4197_15</t>
+  </si>
+  <si>
+    <t>p4198_15</t>
+  </si>
+  <si>
+    <t>p101_15</t>
+  </si>
+  <si>
+    <t>p102_15</t>
+  </si>
+  <si>
+    <t>p103_15</t>
+  </si>
+  <si>
+    <t>p103a_15</t>
+  </si>
+  <si>
+    <t>p104_15</t>
+  </si>
+  <si>
+    <t>p104a_15</t>
+  </si>
+  <si>
+    <t>p105a_15</t>
+  </si>
+  <si>
+    <t>p105b_15</t>
+  </si>
+  <si>
+    <t>p106_15</t>
+  </si>
+  <si>
+    <t>p106b_15</t>
+  </si>
+  <si>
+    <t>p107b1_15</t>
+  </si>
+  <si>
+    <t>p110_15</t>
+  </si>
+  <si>
+    <t>p110a1_15</t>
+  </si>
+  <si>
+    <t>p111a_15</t>
+  </si>
+  <si>
+    <t>p112a_15</t>
+  </si>
+  <si>
+    <t>p1142_15</t>
+  </si>
+  <si>
+    <t>p1144_15</t>
+  </si>
+  <si>
+    <t>percepho_15</t>
+  </si>
+  <si>
+    <t>mieperho_15</t>
+  </si>
+  <si>
+    <t>ingbruhd_15</t>
+  </si>
+  <si>
+    <t>ingindhd_15</t>
+  </si>
+  <si>
+    <t>insedthd_15</t>
+  </si>
+  <si>
+    <t>ingseihd_15</t>
+  </si>
+  <si>
+    <t>ingexthd_15</t>
+  </si>
+  <si>
+    <t>ingtrahd_15</t>
+  </si>
+  <si>
+    <t>ingtexhd_15</t>
+  </si>
+  <si>
+    <t>ingrenhd_15</t>
+  </si>
+  <si>
+    <t>ingmo1hd_15</t>
+  </si>
+  <si>
+    <t>inghog1d_15</t>
+  </si>
+  <si>
+    <t>gashog1d_15</t>
+  </si>
+  <si>
+    <t>estrsocial_15</t>
+  </si>
+  <si>
+    <t>linea_15</t>
+  </si>
+  <si>
+    <t>pobreza_15</t>
   </si>
 </sst>
 </file>
@@ -629,7 +1652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +1668,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +1718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -702,6 +1731,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,14 +2096,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1103,7 +2133,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1113,16 +2143,18 @@
         <v>168</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1132,14 +2164,24 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1149,14 +2191,24 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1166,14 +2218,24 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1183,14 +2245,24 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1202,14 +2274,24 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1219,14 +2301,24 @@
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1236,14 +2328,24 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1255,14 +2357,24 @@
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1272,14 +2384,24 @@
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1289,14 +2411,24 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1306,14 +2438,24 @@
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1323,14 +2465,24 @@
       <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1340,14 +2492,24 @@
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1357,14 +2519,24 @@
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1374,14 +2546,24 @@
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1391,14 +2573,24 @@
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1408,14 +2600,24 @@
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1425,14 +2627,24 @@
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1442,14 +2654,24 @@
       <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1459,14 +2681,24 @@
       <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1476,14 +2708,24 @@
       <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1493,14 +2735,24 @@
       <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1510,14 +2762,24 @@
       <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1527,14 +2789,24 @@
       <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
@@ -1544,14 +2816,24 @@
       <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -1561,14 +2843,24 @@
       <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
@@ -1578,14 +2870,24 @@
       <c r="D30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
@@ -1595,14 +2897,24 @@
       <c r="D31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
@@ -1612,14 +2924,24 @@
       <c r="D32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
@@ -1629,14 +2951,24 @@
       <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1648,14 +2980,24 @@
       <c r="D34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
@@ -1665,14 +3007,24 @@
       <c r="D35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1682,14 +3034,24 @@
       <c r="D36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
@@ -1697,16 +3059,26 @@
         <v>68</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
@@ -1716,14 +3088,24 @@
       <c r="D38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
@@ -1733,14 +3115,24 @@
       <c r="D39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
@@ -1750,14 +3142,16 @@
       <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1769,14 +3163,24 @@
       <c r="D41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
@@ -1786,14 +3190,16 @@
       <c r="D42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
@@ -1803,14 +3209,24 @@
       <c r="D43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
@@ -1820,14 +3236,24 @@
       <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
@@ -1837,14 +3263,24 @@
       <c r="D45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
@@ -1854,14 +3290,24 @@
       <c r="D46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
@@ -1871,14 +3317,24 @@
       <c r="D47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
@@ -1888,14 +3344,24 @@
       <c r="D48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -1905,14 +3371,24 @@
       <c r="D49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
@@ -1922,14 +3398,24 @@
       <c r="D50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
@@ -1939,14 +3425,24 @@
       <c r="D51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
@@ -1956,14 +3452,24 @@
       <c r="D52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
@@ -1973,14 +3479,24 @@
       <c r="D53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
@@ -1990,14 +3506,24 @@
       <c r="D54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
@@ -2007,14 +3533,24 @@
       <c r="D55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
@@ -2024,14 +3560,24 @@
       <c r="D56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2043,14 +3589,24 @@
       <c r="D57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
@@ -2060,14 +3616,24 @@
       <c r="D58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2" t="s">
         <v>104</v>
       </c>
@@ -2077,14 +3643,24 @@
       <c r="D59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="2" t="s">
         <v>106</v>
       </c>
@@ -2094,14 +3670,24 @@
       <c r="D60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="2" t="s">
         <v>108</v>
       </c>
@@ -2111,14 +3697,24 @@
       <c r="D61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
@@ -2128,14 +3724,24 @@
       <c r="D62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
@@ -2145,14 +3751,24 @@
       <c r="D63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
@@ -2162,14 +3778,24 @@
       <c r="D64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
@@ -2179,14 +3805,24 @@
       <c r="D65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
@@ -2196,14 +3832,24 @@
       <c r="D66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
@@ -2213,14 +3859,24 @@
       <c r="D67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2" t="s">
         <v>122</v>
       </c>
@@ -2230,14 +3886,24 @@
       <c r="D68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
@@ -2247,14 +3913,24 @@
       <c r="D69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
@@ -2264,14 +3940,18 @@
       <c r="D70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
@@ -2281,14 +3961,24 @@
       <c r="D71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
@@ -2298,14 +3988,24 @@
       <c r="D72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
@@ -2315,14 +4015,24 @@
       <c r="D73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
@@ -2332,14 +4042,24 @@
       <c r="D74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2351,14 +4071,24 @@
       <c r="D75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
@@ -2368,14 +4098,24 @@
       <c r="D76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
@@ -2385,14 +4125,24 @@
       <c r="D77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
@@ -2402,14 +4152,24 @@
       <c r="D78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
@@ -2419,14 +4179,24 @@
       <c r="D79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="2" t="s">
         <v>146</v>
       </c>
@@ -2436,14 +4206,24 @@
       <c r="D80" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="2" t="s">
         <v>148</v>
       </c>
@@ -2453,14 +4233,24 @@
       <c r="D81" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
@@ -2470,14 +4260,24 @@
       <c r="D82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="2" t="s">
         <v>152</v>
       </c>
@@ -2487,14 +4287,24 @@
       <c r="D83" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="2" t="s">
         <v>154</v>
       </c>
@@ -2504,14 +4314,24 @@
       <c r="D84" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="2" t="s">
         <v>156</v>
       </c>
@@ -2521,14 +4341,24 @@
       <c r="D85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
@@ -2538,14 +4368,24 @@
       <c r="D86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="2" t="s">
         <v>160</v>
       </c>
@@ -2555,14 +4395,24 @@
       <c r="D87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="2" t="s">
         <v>162</v>
       </c>
@@ -2572,14 +4422,24 @@
       <c r="D88" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="2" t="s">
         <v>164</v>
       </c>
@@ -2589,14 +4449,24 @@
       <c r="D89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="2" t="s">
         <v>166</v>
       </c>
@@ -2606,11 +4476,21 @@
       <c r="D90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/docs/panel_comparison.xlsx
+++ b/docs/panel_comparison.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tesis_cyv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833D05D3-F44D-401F-A4C6-B5726E83C449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A192CE-0C91-4C1F-8218-8BB0F2FD518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$N$90</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="535">
   <si>
     <t>Variable</t>
   </si>
@@ -1463,9 +1466,6 @@
     <t>p302_15</t>
   </si>
   <si>
-    <t>p303_15</t>
-  </si>
-  <si>
     <t>p313_15</t>
   </si>
   <si>
@@ -1614,6 +1614,36 @@
   </si>
   <si>
     <t>pobreza_15</t>
+  </si>
+  <si>
+    <t>Tipo de variable</t>
+  </si>
+  <si>
+    <t>variable objetivo</t>
+  </si>
+  <si>
+    <t>irrelevante para el modelo</t>
+  </si>
+  <si>
+    <t>categorica</t>
+  </si>
+  <si>
+    <t>continua:ok</t>
+  </si>
+  <si>
+    <t>calcular el total</t>
+  </si>
+  <si>
+    <t>revisar</t>
+  </si>
+  <si>
+    <t>hacer que las continuas que tienen dos opciones sean una columna de 0 y 1. las categoricas de mas de 3 opciones hacer qu esean dummies y creo que una no se pone</t>
+  </si>
+  <si>
+    <t>p513_calculada_t1</t>
+  </si>
+  <si>
+    <t>p307_15</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1714,11 +1744,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1735,11 +1811,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,21 +2180,26 @@
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.85546875" customWidth="1"/>
+    <col min="4" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2128,12 +2222,16 @@
       <c r="H2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="14" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2151,10 +2249,19 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="I3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="str">
+        <f>LEFT(I3, LEN(I3)-3)&amp;"_t1"</f>
+        <v>status__t1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2176,12 +2283,19 @@
       <c r="H4" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="15" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="J4" s="15" t="str">
+        <f t="shared" ref="J4:J7" si="0">LEFT(I4, LEN(I4)-3)&amp;"_t1"</f>
+        <v>conglome_t1</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2203,12 +2317,19 @@
       <c r="H5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="15" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="J5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>vivienda_t1</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2230,12 +2351,19 @@
       <c r="H6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="15" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="J6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>hogar_t1</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2257,12 +2385,19 @@
       <c r="H7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="15" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="J7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>codperso_t1</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2286,12 +2421,19 @@
       <c r="H8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="J8" s="15" t="str">
+        <f>LEFT(I8, LEN(I8)-3)&amp;"_t1"</f>
+        <v>p207_t1</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2313,12 +2455,19 @@
       <c r="H9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="15" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="J9" s="15" t="str">
+        <f>LEFT(I9, LEN(I9)-3)&amp;"_t1"</f>
+        <v>p208a_t1</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2340,12 +2489,19 @@
       <c r="H10" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="15" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="15" t="str">
+        <f t="shared" ref="J10:J17" si="1">LEFT(I10, LEN(I10)-3)&amp;"_t1"</f>
+        <v>p209_t1</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2369,12 +2525,19 @@
       <c r="H11" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="15" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="J11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p501_t1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2396,12 +2559,19 @@
       <c r="H12" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="15" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="J12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p507_t1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2423,12 +2593,19 @@
       <c r="H13" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="15" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="J13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p510_t1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2450,12 +2627,19 @@
       <c r="H14" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="15" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="J14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p510a1_t1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2477,12 +2661,19 @@
       <c r="H15" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="15" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="J15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p510b_t1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2504,12 +2695,19 @@
       <c r="H16" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="15" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="J16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p511a_t1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2531,12 +2729,19 @@
       <c r="H17" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="15" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="J17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>p512a_t1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2558,12 +2763,19 @@
       <c r="H18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="15" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="J18" s="15" t="str">
+        <f>LEFT(I18, LEN(I18)-3)&amp;"_t1"</f>
+        <v>p513t_t1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -2585,12 +2797,25 @@
       <c r="H19" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="15" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="J19" s="15" t="str">
+        <f t="shared" ref="J19:J22" si="2">LEFT(I19, LEN(I19)-3)&amp;"_t1"</f>
+        <v>p513a1_t1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2612,12 +2837,23 @@
       <c r="H20" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="15" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="J20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>p513a2_t1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2639,12 +2875,19 @@
       <c r="H21" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="15" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="J21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>p514_t1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2666,12 +2909,19 @@
       <c r="H22" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="15" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="J22" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>p519_t1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2693,12 +2943,19 @@
       <c r="H23" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="15" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="J23" s="15" t="str">
+        <f>LEFT(I23, LEN(I23)-3)&amp;"_t1"</f>
+        <v>p520_t1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2720,12 +2977,19 @@
       <c r="H24" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="J24" s="15" t="str">
+        <f>LEFT(I24, LEN(I24)-3)&amp;"_t1"</f>
+        <v>p521a_t1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2747,12 +3011,19 @@
       <c r="H25" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="15" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="J25" s="15" t="str">
+        <f t="shared" ref="J25:J88" si="3">LEFT(I25, LEN(I25)-3)&amp;"_t1"</f>
+        <v>p521c_t1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2774,12 +3045,19 @@
       <c r="H26" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="15" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="J26" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p524a1_t1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2801,12 +3079,22 @@
       <c r="H27" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="J27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p524a2_t1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2828,12 +3116,19 @@
       <c r="H28" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="15" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="J28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p528_t1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2855,12 +3150,19 @@
       <c r="H29" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="J29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p530a_t1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2882,12 +3184,19 @@
       <c r="H30" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="15" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="J30" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p530b_t1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
@@ -2909,12 +3218,19 @@
       <c r="H31" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="15" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="J31" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p535_t1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
@@ -2936,12 +3252,19 @@
       <c r="H32" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="15" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="J32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p558c_t1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
@@ -2963,12 +3286,19 @@
       <c r="H33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="15" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="J33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p558d_t1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2992,12 +3322,19 @@
       <c r="H34" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="15" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="J34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p300a_t1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
@@ -3019,12 +3356,19 @@
       <c r="H35" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="15" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="J35" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p301a_t1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
@@ -3046,12 +3390,19 @@
       <c r="H36" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="15" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="J36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p302_t1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
@@ -3071,14 +3422,21 @@
         <v>391</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+        <v>534</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="J37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p307_t1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
@@ -3098,14 +3456,21 @@
         <v>392</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+        <v>475</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="J38" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p313_t1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
@@ -3125,14 +3490,21 @@
         <v>393</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+        <v>476</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="J39" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p314a_t1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
@@ -3148,10 +3520,12 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="I40" s="16"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3173,14 +3547,21 @@
         <v>394</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+        <v>477</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="J41" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p401f_t1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
@@ -3196,10 +3577,12 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3219,14 +3602,21 @@
         <v>395</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+        <v>478</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="J43" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p401_t1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
@@ -3246,14 +3636,21 @@
         <v>396</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+        <v>479</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="J44" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4021_t1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
@@ -3273,14 +3670,21 @@
         <v>397</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+        <v>480</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="J45" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4022_t1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
@@ -3300,14 +3704,21 @@
         <v>398</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+        <v>481</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="J46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4023_t1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
@@ -3327,14 +3738,21 @@
         <v>399</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+        <v>482</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="J47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4024_t1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
       <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
@@ -3354,14 +3772,21 @@
         <v>400</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+        <v>483</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="J48" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4025_t1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3381,14 +3806,21 @@
         <v>401</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+        <v>484</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="J49" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4191_t1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
@@ -3408,14 +3840,21 @@
         <v>402</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+        <v>485</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="J50" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4192_t1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
@@ -3435,14 +3874,21 @@
         <v>403</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+        <v>486</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="J51" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4193_t1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3462,14 +3908,21 @@
         <v>404</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+        <v>487</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="J52" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4194_t1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
       <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
@@ -3489,14 +3942,21 @@
         <v>405</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+        <v>488</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="J53" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4195_t1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
       <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
@@ -3516,14 +3976,21 @@
         <v>406</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+        <v>489</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="J54" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4196_t1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
       <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3543,14 +4010,21 @@
         <v>407</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+        <v>490</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="J55" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4197_t1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
       <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
@@ -3570,14 +4044,21 @@
         <v>408</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p4198_t1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3599,14 +4080,21 @@
         <v>409</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+        <v>492</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p101_t1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
       <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
@@ -3626,14 +4114,21 @@
         <v>410</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+        <v>493</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p102_t1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
       <c r="B59" s="2" t="s">
         <v>104</v>
       </c>
@@ -3653,14 +4148,21 @@
         <v>411</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+        <v>494</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="J59" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p103_t1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
       <c r="B60" s="2" t="s">
         <v>106</v>
       </c>
@@ -3680,14 +4182,21 @@
         <v>412</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+        <v>495</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="J60" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p103a_t1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
       <c r="B61" s="2" t="s">
         <v>108</v>
       </c>
@@ -3707,14 +4216,21 @@
         <v>413</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+        <v>496</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="J61" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p104_t1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
       <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
@@ -3734,14 +4250,21 @@
         <v>414</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+        <v>497</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="J62" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p104a_t1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
@@ -3761,14 +4284,21 @@
         <v>415</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+        <v>498</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="J63" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p105a_t1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
@@ -3788,14 +4318,24 @@
         <v>416</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+        <v>499</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="J64" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p105b_t1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N64" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
@@ -3815,14 +4355,21 @@
         <v>417</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="J65" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p106_t1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
       <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
@@ -3842,14 +4389,21 @@
         <v>418</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+        <v>501</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p106b_t1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
@@ -3869,14 +4423,21 @@
         <v>419</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="J67" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p107b1_t1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
       <c r="B68" s="2" t="s">
         <v>122</v>
       </c>
@@ -3896,14 +4457,21 @@
         <v>420</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+        <v>503</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="J68" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p110_t1</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
       <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
@@ -3923,14 +4491,21 @@
         <v>421</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+        <v>504</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="J69" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p110a1_t1</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
       <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
@@ -3948,10 +4523,12 @@
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
       <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3971,14 +4548,21 @@
         <v>422</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+        <v>505</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="J71" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p111a_t1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
@@ -3998,14 +4582,21 @@
         <v>423</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
+        <v>506</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="J72" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p112a_t1</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
       <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
@@ -4025,14 +4616,21 @@
         <v>424</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+        <v>507</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="J73" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p1142_t1</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
       <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
@@ -4052,14 +4650,21 @@
         <v>425</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="J74" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>p1144_t1</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4081,14 +4686,21 @@
         <v>426</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+        <v>509</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="J75" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>percepho_t1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
       <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
@@ -4108,14 +4720,21 @@
         <v>427</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+        <v>510</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="J76" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>mieperho_t1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
       <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
@@ -4135,14 +4754,21 @@
         <v>428</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
+        <v>511</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="J77" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingbruhd_t1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
       <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
@@ -4162,14 +4788,21 @@
         <v>429</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
+        <v>512</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="J78" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingindhd_t1</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
       <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
@@ -4189,14 +4822,21 @@
         <v>430</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
+        <v>513</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="J79" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>insedthd_t1</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
       <c r="B80" s="2" t="s">
         <v>146</v>
       </c>
@@ -4216,14 +4856,21 @@
         <v>431</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+        <v>514</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="J80" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingseihd_t1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
       <c r="B81" s="2" t="s">
         <v>148</v>
       </c>
@@ -4243,14 +4890,21 @@
         <v>432</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
+        <v>515</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="J81" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingexthd_t1</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
       <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
@@ -4270,14 +4924,21 @@
         <v>433</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+        <v>516</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="J82" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingtrahd_t1</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
       <c r="B83" s="2" t="s">
         <v>152</v>
       </c>
@@ -4297,14 +4958,21 @@
         <v>434</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+        <v>517</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J83" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingtexhd_t1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
       <c r="B84" s="2" t="s">
         <v>154</v>
       </c>
@@ -4324,14 +4992,21 @@
         <v>435</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+        <v>518</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="J84" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingrenhd_t1</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
       <c r="B85" s="2" t="s">
         <v>156</v>
       </c>
@@ -4351,14 +5026,21 @@
         <v>436</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+        <v>519</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="J85" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>ingmo1hd_t1</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
       <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
@@ -4378,14 +5060,21 @@
         <v>437</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+        <v>520</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="J86" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>inghog1d_t1</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
       <c r="B87" s="2" t="s">
         <v>160</v>
       </c>
@@ -4405,14 +5094,21 @@
         <v>438</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+        <v>521</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="J87" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>gashog1d_t1</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
       <c r="B88" s="2" t="s">
         <v>162</v>
       </c>
@@ -4432,14 +5128,21 @@
         <v>439</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+        <v>522</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="J88" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>estrsocial_t1</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
       <c r="B89" s="2" t="s">
         <v>164</v>
       </c>
@@ -4459,14 +5162,21 @@
         <v>440</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+        <v>523</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="J89" s="15" t="str">
+        <f t="shared" ref="J89:J90" si="4">LEFT(I89, LEN(I89)-3)&amp;"_t1"</f>
+        <v>linea_t1</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
       <c r="B90" s="2" t="s">
         <v>166</v>
       </c>
@@ -4486,14 +5196,23 @@
         <v>441</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="J90" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>pobreza_t1</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <autoFilter ref="A2:N90" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}"/>
+  <mergeCells count="9">
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="A75:A90"/>
     <mergeCell ref="A57:A74"/>

--- a/docs/panel_comparison.xlsx
+++ b/docs/panel_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tesis_cyv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A192CE-0C91-4C1F-8218-8BB0F2FD518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2894B132-8EF2-4513-B670-CB469CF138AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1794,7 +1794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1811,6 +1811,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1819,16 +1827,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2171,35 +2169,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="9"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2222,16 +2220,16 @@
       <c r="H2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2249,10 +2247,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="15" t="str">
+      <c r="J3" s="12" t="str">
         <f>LEFT(I3, LEN(I3)-3)&amp;"_t1"</f>
         <v>status__t1</v>
       </c>
@@ -2260,8 +2258,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2283,19 +2281,19 @@
       <c r="H4" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="J4" s="15" t="str">
+      <c r="J4" s="12" t="str">
         <f t="shared" ref="J4:J7" si="0">LEFT(I4, LEN(I4)-3)&amp;"_t1"</f>
         <v>conglome_t1</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2317,19 +2315,19 @@
       <c r="H5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="J5" s="15" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>vivienda_t1</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2351,19 +2349,19 @@
       <c r="H6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="J6" s="15" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>hogar_t1</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2385,19 +2383,19 @@
       <c r="H7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="J7" s="15" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>codperso_t1</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2421,19 +2419,19 @@
       <c r="H8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="J8" s="15" t="str">
+      <c r="J8" s="12" t="str">
         <f>LEFT(I8, LEN(I8)-3)&amp;"_t1"</f>
         <v>p207_t1</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="K8" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2455,19 +2453,19 @@
       <c r="H9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J9" s="15" t="str">
+      <c r="J9" s="12" t="str">
         <f>LEFT(I9, LEN(I9)-3)&amp;"_t1"</f>
         <v>p208a_t1</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2489,19 +2487,19 @@
       <c r="H10" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="J10" s="15" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" ref="J10:J17" si="1">LEFT(I10, LEN(I10)-3)&amp;"_t1"</f>
         <v>p209_t1</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="K10" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2525,10 +2523,10 @@
       <c r="H11" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="J11" s="15" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p501_t1</v>
       </c>
@@ -2536,8 +2534,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2559,10 +2557,10 @@
       <c r="H12" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="J12" s="15" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p507_t1</v>
       </c>
@@ -2570,8 +2568,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2593,10 +2591,10 @@
       <c r="H13" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="J13" s="15" t="str">
+      <c r="J13" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p510_t1</v>
       </c>
@@ -2604,8 +2602,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2627,10 +2625,10 @@
       <c r="H14" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="J14" s="15" t="str">
+      <c r="J14" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p510a1_t1</v>
       </c>
@@ -2638,8 +2636,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2661,10 +2659,10 @@
       <c r="H15" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="J15" s="15" t="str">
+      <c r="J15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p510b_t1</v>
       </c>
@@ -2672,8 +2670,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2695,10 +2693,10 @@
       <c r="H16" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J16" s="15" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p511a_t1</v>
       </c>
@@ -2706,8 +2704,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2729,10 +2727,10 @@
       <c r="H17" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="J17" s="15" t="str">
+      <c r="J17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p512a_t1</v>
       </c>
@@ -2740,8 +2738,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2763,10 +2761,10 @@
       <c r="H18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="J18" s="15" t="str">
+      <c r="J18" s="12" t="str">
         <f>LEFT(I18, LEN(I18)-3)&amp;"_t1"</f>
         <v>p513t_t1</v>
       </c>
@@ -2774,8 +2772,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -2797,25 +2795,25 @@
       <c r="H19" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="J19" s="15" t="str">
+      <c r="J19" s="12" t="str">
         <f t="shared" ref="J19:J22" si="2">LEFT(I19, LEN(I19)-3)&amp;"_t1"</f>
         <v>p513a1_t1</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="15" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2837,23 +2835,23 @@
       <c r="H20" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="J20" s="15" t="str">
+      <c r="J20" s="12" t="str">
         <f t="shared" si="2"/>
         <v>p513a2_t1</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2875,10 +2873,10 @@
       <c r="H21" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="J21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>p514_t1</v>
       </c>
@@ -2886,8 +2884,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2909,10 +2907,10 @@
       <c r="H22" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="15" t="str">
+      <c r="J22" s="12" t="str">
         <f t="shared" si="2"/>
         <v>p519_t1</v>
       </c>
@@ -2920,8 +2918,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2943,10 +2941,10 @@
       <c r="H23" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="J23" s="15" t="str">
+      <c r="J23" s="12" t="str">
         <f>LEFT(I23, LEN(I23)-3)&amp;"_t1"</f>
         <v>p520_t1</v>
       </c>
@@ -2954,8 +2952,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2977,10 +2975,10 @@
       <c r="H24" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="J24" s="15" t="str">
+      <c r="J24" s="12" t="str">
         <f>LEFT(I24, LEN(I24)-3)&amp;"_t1"</f>
         <v>p521a_t1</v>
       </c>
@@ -2988,8 +2986,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -3011,10 +3009,10 @@
       <c r="H25" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="J25" s="15" t="str">
+      <c r="J25" s="12" t="str">
         <f t="shared" ref="J25:J88" si="3">LEFT(I25, LEN(I25)-3)&amp;"_t1"</f>
         <v>p521c_t1</v>
       </c>
@@ -3022,8 +3020,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -3045,10 +3043,10 @@
       <c r="H26" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="J26" s="15" t="str">
+      <c r="J26" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p524a1_t1</v>
       </c>
@@ -3056,8 +3054,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
@@ -3079,22 +3077,22 @@
       <c r="H27" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="J27" s="15" t="str">
+      <c r="J27" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p524a2_t1</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="10" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
@@ -3116,10 +3114,10 @@
       <c r="H28" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="J28" s="15" t="str">
+      <c r="J28" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p528_t1</v>
       </c>
@@ -3127,8 +3125,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -3150,10 +3148,10 @@
       <c r="H29" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="J29" s="15" t="str">
+      <c r="J29" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p530a_t1</v>
       </c>
@@ -3161,8 +3159,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
       <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
@@ -3184,10 +3182,10 @@
       <c r="H30" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="J30" s="15" t="str">
+      <c r="J30" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p530b_t1</v>
       </c>
@@ -3195,8 +3193,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
       <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
@@ -3218,10 +3216,10 @@
       <c r="H31" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="J31" s="15" t="str">
+      <c r="J31" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p535_t1</v>
       </c>
@@ -3229,8 +3227,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
@@ -3252,10 +3250,10 @@
       <c r="H32" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="J32" s="15" t="str">
+      <c r="J32" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p558c_t1</v>
       </c>
@@ -3263,8 +3261,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
       <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3286,10 +3284,10 @@
       <c r="H33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="J33" s="15" t="str">
+      <c r="J33" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p558d_t1</v>
       </c>
@@ -3297,8 +3295,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3322,10 +3320,10 @@
       <c r="H34" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="J34" s="15" t="str">
+      <c r="J34" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p300a_t1</v>
       </c>
@@ -3333,8 +3331,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
@@ -3356,10 +3354,10 @@
       <c r="H35" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="J35" s="15" t="str">
+      <c r="J35" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p301a_t1</v>
       </c>
@@ -3367,8 +3365,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
@@ -3390,10 +3388,10 @@
       <c r="H36" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="J36" s="15" t="str">
+      <c r="J36" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p302_t1</v>
       </c>
@@ -3401,8 +3399,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
@@ -3424,10 +3422,10 @@
       <c r="H37" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="J37" s="15" t="str">
+      <c r="J37" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p307_t1</v>
       </c>
@@ -3435,8 +3433,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
@@ -3458,10 +3456,10 @@
       <c r="H38" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="J38" s="15" t="str">
+      <c r="J38" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p313_t1</v>
       </c>
@@ -3469,8 +3467,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
       <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
@@ -3492,10 +3490,10 @@
       <c r="H39" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="J39" s="15" t="str">
+      <c r="J39" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p314a_t1</v>
       </c>
@@ -3503,8 +3501,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
@@ -3520,12 +3518,12 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3549,10 +3547,10 @@
       <c r="H41" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="J41" s="15" t="str">
+      <c r="J41" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p401f_t1</v>
       </c>
@@ -3560,8 +3558,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
@@ -3577,12 +3575,12 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
       <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3604,10 +3602,10 @@
       <c r="H43" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="J43" s="15" t="str">
+      <c r="J43" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p401_t1</v>
       </c>
@@ -3615,8 +3613,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
@@ -3638,10 +3636,10 @@
       <c r="H44" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="J44" s="15" t="str">
+      <c r="J44" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4021_t1</v>
       </c>
@@ -3649,8 +3647,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
@@ -3672,10 +3670,10 @@
       <c r="H45" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="J45" s="15" t="str">
+      <c r="J45" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4022_t1</v>
       </c>
@@ -3683,8 +3681,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
@@ -3706,10 +3704,10 @@
       <c r="H46" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="J46" s="15" t="str">
+      <c r="J46" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4023_t1</v>
       </c>
@@ -3717,8 +3715,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
@@ -3740,10 +3738,10 @@
       <c r="H47" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="J47" s="15" t="str">
+      <c r="J47" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4024_t1</v>
       </c>
@@ -3751,8 +3749,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
       <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
@@ -3774,10 +3772,10 @@
       <c r="H48" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="J48" s="15" t="str">
+      <c r="J48" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4025_t1</v>
       </c>
@@ -3785,8 +3783,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3808,10 +3806,10 @@
       <c r="H49" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="J49" s="15" t="str">
+      <c r="J49" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4191_t1</v>
       </c>
@@ -3819,8 +3817,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
@@ -3842,10 +3840,10 @@
       <c r="H50" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="J50" s="15" t="str">
+      <c r="J50" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4192_t1</v>
       </c>
@@ -3853,8 +3851,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
@@ -3876,10 +3874,10 @@
       <c r="H51" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="J51" s="15" t="str">
+      <c r="J51" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4193_t1</v>
       </c>
@@ -3887,8 +3885,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3910,10 +3908,10 @@
       <c r="H52" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="J52" s="15" t="str">
+      <c r="J52" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4194_t1</v>
       </c>
@@ -3921,8 +3919,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
       <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
@@ -3944,10 +3942,10 @@
       <c r="H53" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="J53" s="15" t="str">
+      <c r="J53" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4195_t1</v>
       </c>
@@ -3955,8 +3953,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
       <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
@@ -3978,10 +3976,10 @@
       <c r="H54" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="J54" s="15" t="str">
+      <c r="J54" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4196_t1</v>
       </c>
@@ -3989,8 +3987,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
       <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
@@ -4012,10 +4010,10 @@
       <c r="H55" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="J55" s="15" t="str">
+      <c r="J55" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4197_t1</v>
       </c>
@@ -4023,8 +4021,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
       <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
@@ -4046,10 +4044,10 @@
       <c r="H56" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="J56" s="15" t="str">
+      <c r="J56" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4198_t1</v>
       </c>
@@ -4057,8 +4055,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -4082,10 +4080,10 @@
       <c r="H57" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="J57" s="15" t="str">
+      <c r="J57" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p101_t1</v>
       </c>
@@ -4093,8 +4091,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
       <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
@@ -4116,10 +4114,10 @@
       <c r="H58" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="J58" s="15" t="str">
+      <c r="J58" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p102_t1</v>
       </c>
@@ -4127,8 +4125,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
       <c r="B59" s="2" t="s">
         <v>104</v>
       </c>
@@ -4150,10 +4148,10 @@
       <c r="H59" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="J59" s="15" t="str">
+      <c r="J59" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p103_t1</v>
       </c>
@@ -4161,8 +4159,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
       <c r="B60" s="2" t="s">
         <v>106</v>
       </c>
@@ -4184,10 +4182,10 @@
       <c r="H60" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="J60" s="15" t="str">
+      <c r="J60" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p103a_t1</v>
       </c>
@@ -4195,8 +4193,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
       <c r="B61" s="2" t="s">
         <v>108</v>
       </c>
@@ -4218,10 +4216,10 @@
       <c r="H61" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="J61" s="15" t="str">
+      <c r="J61" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p104_t1</v>
       </c>
@@ -4229,8 +4227,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
       <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
@@ -4252,10 +4250,10 @@
       <c r="H62" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="J62" s="15" t="str">
+      <c r="J62" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p104a_t1</v>
       </c>
@@ -4263,8 +4261,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
@@ -4286,10 +4284,10 @@
       <c r="H63" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="J63" s="15" t="str">
+      <c r="J63" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p105a_t1</v>
       </c>
@@ -4297,8 +4295,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
@@ -4320,10 +4318,10 @@
       <c r="H64" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="J64" s="15" t="str">
+      <c r="J64" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p105b_t1</v>
       </c>
@@ -4334,8 +4332,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
@@ -4357,10 +4355,10 @@
       <c r="H65" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="J65" s="15" t="str">
+      <c r="J65" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p106_t1</v>
       </c>
@@ -4368,8 +4366,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
       <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
@@ -4391,10 +4389,10 @@
       <c r="H66" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="J66" s="15" t="str">
+      <c r="J66" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p106b_t1</v>
       </c>
@@ -4402,8 +4400,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
       <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
@@ -4425,10 +4423,10 @@
       <c r="H67" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="J67" s="15" t="str">
+      <c r="J67" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p107b1_t1</v>
       </c>
@@ -4436,8 +4434,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
       <c r="B68" s="2" t="s">
         <v>122</v>
       </c>
@@ -4459,10 +4457,10 @@
       <c r="H68" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="J68" s="15" t="str">
+      <c r="J68" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p110_t1</v>
       </c>
@@ -4470,8 +4468,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
       <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
@@ -4493,10 +4491,10 @@
       <c r="H69" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="J69" s="15" t="str">
+      <c r="J69" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p110a1_t1</v>
       </c>
@@ -4504,8 +4502,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
       <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
@@ -4523,12 +4521,12 @@
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="15"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="12"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
       <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
@@ -4550,10 +4548,10 @@
       <c r="H71" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="J71" s="15" t="str">
+      <c r="J71" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p111a_t1</v>
       </c>
@@ -4561,8 +4559,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
@@ -4584,10 +4582,10 @@
       <c r="H72" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="J72" s="15" t="str">
+      <c r="J72" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p112a_t1</v>
       </c>
@@ -4595,8 +4593,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
       <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
@@ -4618,10 +4616,10 @@
       <c r="H73" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="J73" s="15" t="str">
+      <c r="J73" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p1142_t1</v>
       </c>
@@ -4629,8 +4627,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
       <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
@@ -4652,10 +4650,10 @@
       <c r="H74" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="J74" s="15" t="str">
+      <c r="J74" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p1144_t1</v>
       </c>
@@ -4663,8 +4661,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4688,10 +4686,10 @@
       <c r="H75" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="J75" s="15" t="str">
+      <c r="J75" s="12" t="str">
         <f t="shared" si="3"/>
         <v>percepho_t1</v>
       </c>
@@ -4699,8 +4697,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
       <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
@@ -4722,10 +4720,10 @@
       <c r="H76" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="J76" s="15" t="str">
+      <c r="J76" s="12" t="str">
         <f t="shared" si="3"/>
         <v>mieperho_t1</v>
       </c>
@@ -4733,8 +4731,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="17"/>
       <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
@@ -4756,10 +4754,10 @@
       <c r="H77" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="J77" s="15" t="str">
+      <c r="J77" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingbruhd_t1</v>
       </c>
@@ -4767,8 +4765,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
       <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
@@ -4790,10 +4788,10 @@
       <c r="H78" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="J78" s="15" t="str">
+      <c r="J78" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingindhd_t1</v>
       </c>
@@ -4801,8 +4799,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="17"/>
       <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
@@ -4824,10 +4822,10 @@
       <c r="H79" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="J79" s="15" t="str">
+      <c r="J79" s="12" t="str">
         <f t="shared" si="3"/>
         <v>insedthd_t1</v>
       </c>
@@ -4835,8 +4833,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
       <c r="B80" s="2" t="s">
         <v>146</v>
       </c>
@@ -4858,10 +4856,10 @@
       <c r="H80" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="J80" s="15" t="str">
+      <c r="J80" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingseihd_t1</v>
       </c>
@@ -4869,8 +4867,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
       <c r="B81" s="2" t="s">
         <v>148</v>
       </c>
@@ -4892,10 +4890,10 @@
       <c r="H81" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="J81" s="15" t="str">
+      <c r="J81" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingexthd_t1</v>
       </c>
@@ -4903,8 +4901,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="17"/>
       <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
@@ -4926,10 +4924,10 @@
       <c r="H82" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="J82" s="15" t="str">
+      <c r="J82" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingtrahd_t1</v>
       </c>
@@ -4937,8 +4935,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
       <c r="B83" s="2" t="s">
         <v>152</v>
       </c>
@@ -4960,10 +4958,10 @@
       <c r="H83" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="J83" s="15" t="str">
+      <c r="J83" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingtexhd_t1</v>
       </c>
@@ -4971,8 +4969,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
       <c r="B84" s="2" t="s">
         <v>154</v>
       </c>
@@ -4994,10 +4992,10 @@
       <c r="H84" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="J84" s="15" t="str">
+      <c r="J84" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingrenhd_t1</v>
       </c>
@@ -5005,8 +5003,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="17"/>
       <c r="B85" s="2" t="s">
         <v>156</v>
       </c>
@@ -5028,10 +5026,10 @@
       <c r="H85" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J85" s="15" t="str">
+      <c r="J85" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ingmo1hd_t1</v>
       </c>
@@ -5039,8 +5037,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
       <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
@@ -5062,10 +5060,10 @@
       <c r="H86" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="J86" s="15" t="str">
+      <c r="J86" s="12" t="str">
         <f t="shared" si="3"/>
         <v>inghog1d_t1</v>
       </c>
@@ -5073,8 +5071,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
       <c r="B87" s="2" t="s">
         <v>160</v>
       </c>
@@ -5096,10 +5094,10 @@
       <c r="H87" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="J87" s="15" t="str">
+      <c r="J87" s="12" t="str">
         <f t="shared" si="3"/>
         <v>gashog1d_t1</v>
       </c>
@@ -5107,8 +5105,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
       <c r="B88" s="2" t="s">
         <v>162</v>
       </c>
@@ -5130,10 +5128,10 @@
       <c r="H88" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="J88" s="15" t="str">
+      <c r="J88" s="12" t="str">
         <f t="shared" si="3"/>
         <v>estrsocial_t1</v>
       </c>
@@ -5141,8 +5139,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
       <c r="B89" s="2" t="s">
         <v>164</v>
       </c>
@@ -5164,10 +5162,10 @@
       <c r="H89" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="J89" s="15" t="str">
+      <c r="J89" s="12" t="str">
         <f t="shared" ref="J89:J90" si="4">LEFT(I89, LEN(I89)-3)&amp;"_t1"</f>
         <v>linea_t1</v>
       </c>
@@ -5175,8 +5173,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="17"/>
       <c r="B90" s="2" t="s">
         <v>166</v>
       </c>
@@ -5198,14 +5196,14 @@
       <c r="H90" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="J90" s="15" t="str">
+      <c r="J90" s="12" t="str">
         <f t="shared" si="4"/>
         <v>pobreza_t1</v>
       </c>
-      <c r="K90" s="18" t="s">
+      <c r="K90" s="14" t="s">
         <v>528</v>
       </c>
     </row>

--- a/docs/panel_comparison.xlsx
+++ b/docs/panel_comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tesis_cyv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2894B132-8EF2-4513-B670-CB469CF138AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544DDD8-2CB8-4ADD-81C0-06677D01887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0D8AFCBD-9317-4E52-8EEE-06421CBD2BDB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$N$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$O$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="659">
   <si>
     <t>Variable</t>
   </si>
@@ -1644,6 +1644,378 @@
   </si>
   <si>
     <t>p307_15</t>
+  </si>
+  <si>
+    <t>Varias categorias. 1% de faltantes.</t>
+  </si>
+  <si>
+    <t>Varias categorías. No faltantes</t>
+  </si>
+  <si>
+    <t>Ver problema de nulos. Son nulos todos los que han marcado que no alquilan una vivienda, por lo cual no tengo el monto de su alquiler. Puedo imputarles un valor de cero quizás.</t>
+  </si>
+  <si>
+    <t>13% de faltantes. Muchos de los missings vienen pq antes han puesto que alquilan vivienda.</t>
+  </si>
+  <si>
+    <t>Tiene muchos missings. Incluir mejor p106a.</t>
+  </si>
+  <si>
+    <t>Variable poco informativa. Revisar en todo caso incluir todas las variables del p107b</t>
+  </si>
+  <si>
+    <t>No missings. Pero revisar consistencia. Buenas categorias.</t>
+  </si>
+  <si>
+    <t>Pocos missings. Pero relacionados a que acceden a cierto tipo de servicios en la anterior pregunta.</t>
+  </si>
+  <si>
+    <t>Irrelevante para el modelo.</t>
+  </si>
+  <si>
+    <t>status__t1</t>
+  </si>
+  <si>
+    <t>conglome_t1</t>
+  </si>
+  <si>
+    <t>vivienda_t1</t>
+  </si>
+  <si>
+    <t>hogar_t1</t>
+  </si>
+  <si>
+    <t>codperso_t1</t>
+  </si>
+  <si>
+    <t>p207_t1</t>
+  </si>
+  <si>
+    <t>p208a_t1</t>
+  </si>
+  <si>
+    <t>p209_t1</t>
+  </si>
+  <si>
+    <t>p501_t1</t>
+  </si>
+  <si>
+    <t>p507_t1</t>
+  </si>
+  <si>
+    <t>p510_t1</t>
+  </si>
+  <si>
+    <t>p510a1_t1</t>
+  </si>
+  <si>
+    <t>p510b_t1</t>
+  </si>
+  <si>
+    <t>p511a_t1</t>
+  </si>
+  <si>
+    <t>p512a_t1</t>
+  </si>
+  <si>
+    <t>p513t_t1</t>
+  </si>
+  <si>
+    <t>p513a1_t1</t>
+  </si>
+  <si>
+    <t>p513a2_t1</t>
+  </si>
+  <si>
+    <t>p514_t1</t>
+  </si>
+  <si>
+    <t>p519_t1</t>
+  </si>
+  <si>
+    <t>p520_t1</t>
+  </si>
+  <si>
+    <t>p521a_t1</t>
+  </si>
+  <si>
+    <t>p521c_t1</t>
+  </si>
+  <si>
+    <t>p524a1_t1</t>
+  </si>
+  <si>
+    <t>p524a2_t1</t>
+  </si>
+  <si>
+    <t>p528_t1</t>
+  </si>
+  <si>
+    <t>p530a_t1</t>
+  </si>
+  <si>
+    <t>p530b_t1</t>
+  </si>
+  <si>
+    <t>p535_t1</t>
+  </si>
+  <si>
+    <t>p558c_t1</t>
+  </si>
+  <si>
+    <t>p558d_t1</t>
+  </si>
+  <si>
+    <t>p300a_t1</t>
+  </si>
+  <si>
+    <t>p301a_t1</t>
+  </si>
+  <si>
+    <t>p302_t1</t>
+  </si>
+  <si>
+    <t>p307_t1</t>
+  </si>
+  <si>
+    <t>p313_t1</t>
+  </si>
+  <si>
+    <t>p314a_t1</t>
+  </si>
+  <si>
+    <t>p401f_t1</t>
+  </si>
+  <si>
+    <t>p401_t1</t>
+  </si>
+  <si>
+    <t>p4021_t1</t>
+  </si>
+  <si>
+    <t>p4022_t1</t>
+  </si>
+  <si>
+    <t>p4023_t1</t>
+  </si>
+  <si>
+    <t>p4024_t1</t>
+  </si>
+  <si>
+    <t>p4025_t1</t>
+  </si>
+  <si>
+    <t>p4191_t1</t>
+  </si>
+  <si>
+    <t>p4192_t1</t>
+  </si>
+  <si>
+    <t>p4193_t1</t>
+  </si>
+  <si>
+    <t>p4194_t1</t>
+  </si>
+  <si>
+    <t>p4195_t1</t>
+  </si>
+  <si>
+    <t>p4196_t1</t>
+  </si>
+  <si>
+    <t>p4197_t1</t>
+  </si>
+  <si>
+    <t>p4198_t1</t>
+  </si>
+  <si>
+    <t>p101_t1</t>
+  </si>
+  <si>
+    <t>p102_t1</t>
+  </si>
+  <si>
+    <t>p103_t1</t>
+  </si>
+  <si>
+    <t>p103a_t1</t>
+  </si>
+  <si>
+    <t>p104_t1</t>
+  </si>
+  <si>
+    <t>p104a_t1</t>
+  </si>
+  <si>
+    <t>p105a_t1</t>
+  </si>
+  <si>
+    <t>p105b_t1</t>
+  </si>
+  <si>
+    <t>p106_t1</t>
+  </si>
+  <si>
+    <t>p106b_t1</t>
+  </si>
+  <si>
+    <t>p107b1_t1</t>
+  </si>
+  <si>
+    <t>p110_t1</t>
+  </si>
+  <si>
+    <t>p110a1_t1</t>
+  </si>
+  <si>
+    <t>p111a_t1</t>
+  </si>
+  <si>
+    <t>p112a_t1</t>
+  </si>
+  <si>
+    <t>p1142_t1</t>
+  </si>
+  <si>
+    <t>p1144_t1</t>
+  </si>
+  <si>
+    <t>percepho_t1</t>
+  </si>
+  <si>
+    <t>mieperho_t1</t>
+  </si>
+  <si>
+    <t>ingbruhd_t1</t>
+  </si>
+  <si>
+    <t>ingindhd_t1</t>
+  </si>
+  <si>
+    <t>insedthd_t1</t>
+  </si>
+  <si>
+    <t>ingseihd_t1</t>
+  </si>
+  <si>
+    <t>ingexthd_t1</t>
+  </si>
+  <si>
+    <t>ingtrahd_t1</t>
+  </si>
+  <si>
+    <t>ingtexhd_t1</t>
+  </si>
+  <si>
+    <t>ingrenhd_t1</t>
+  </si>
+  <si>
+    <t>ingmo1hd_t1</t>
+  </si>
+  <si>
+    <t>inghog1d_t1</t>
+  </si>
+  <si>
+    <t>gashog1d_t1</t>
+  </si>
+  <si>
+    <t>estrsocial_t1</t>
+  </si>
+  <si>
+    <t>linea_t1</t>
+  </si>
+  <si>
+    <t>pobreza_t1</t>
+  </si>
+  <si>
+    <t>Irrelevante por relación con otras variables.</t>
+  </si>
+  <si>
+    <t>Reemplazar temporalmente por una variable de ingresos.</t>
+  </si>
+  <si>
+    <t>Pocos missings. Corregible.</t>
+  </si>
+  <si>
+    <t>OK. No missings.</t>
+  </si>
+  <si>
+    <t>OK. No missings. Pero la variable tiene dos categorias y una tiene 98%.</t>
+  </si>
+  <si>
+    <t>OK. No missings. Aporta valor. Mitad tiene y la otra mitad no tiene internet.</t>
+  </si>
+  <si>
+    <t>OK. No missings</t>
+  </si>
+  <si>
+    <t>OK. No missings. Pero poco informativo porque la mayoria (95%) responde que si tiene trabajo lo cual es obvio.</t>
+  </si>
+  <si>
+    <t>OK. No missings. Muy informativa.</t>
+  </si>
+  <si>
+    <t>24% de missings. Pero es informativa. Hay que tratarla.</t>
+  </si>
+  <si>
+    <t>35% de missings. Pero es informativa. Hay que tratarla. Puede que tenga missings de los independientes que no responden para quién trabajan,</t>
+  </si>
+  <si>
+    <t>25% de missings. Pero es informativa. Hay que tratarla. Puede que tenga missings de los independientes que no responden para quién trabajan,</t>
+  </si>
+  <si>
+    <t>OK. Poco porcentaje de missings.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK. No missings. Informativa.</t>
+  </si>
+  <si>
+    <t>OK. No missings. Condiciona la pregunta p520.</t>
+  </si>
+  <si>
+    <t>Gran cantidad de missings porque depende de la pregunta p519, pues solo se le pregunta la p520 a las personas que trabajan en la ultima semana mas de lo que consideran normal para una semana</t>
+  </si>
+  <si>
+    <t>Tambien tiene missings condicionada por la pregunta p521. Revisar si quizás es una mejor idea incluir la p521 a secas (que no es condicionada)</t>
+  </si>
+  <si>
+    <t>Baja cantidad de missings (3%). Se puede imputar.</t>
+  </si>
+  <si>
+    <t>Para ambos: se hará una mejor inclusión de los ingresos.</t>
+  </si>
+  <si>
+    <t>25% de missings. Se debe al diseño de la encuesta.</t>
+  </si>
+  <si>
+    <t>Se reclasificará la definición de ingreso por persona. No es posible tener campospara cada uno.</t>
+  </si>
+  <si>
+    <t>Gran cantidad de missings porque esta pregunta solo se le hace a cierto grupo (independientes).</t>
+  </si>
+  <si>
+    <t>OK. Prácticamente no missings. 0.02%</t>
+  </si>
+  <si>
+    <t>Incluir la pregunta siguiente para obtener el resultado completo. Ahora tiene muchos faltantes porque la cartilla se aplica en otra pregunta.</t>
+  </si>
+  <si>
+    <t>Quizás reemplazar por la p306 pq la 307 es saltada en cierto lado y por eso la gran cantidad de missings.</t>
+  </si>
+  <si>
+    <t>DESCARTAR</t>
+  </si>
+  <si>
+    <t>OK. Practicamente no missings.</t>
+  </si>
+  <si>
+    <t>OK. No missings. Interesante e informativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No missings. </t>
   </si>
 </sst>
 </file>
@@ -1682,7 +2054,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,8 +2079,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1777,24 +2155,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1815,7 +2180,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,6 +2198,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,7 +2230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2167,3051 +2546,3496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="147.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="str">
-        <f>LEFT(I3, LEN(I3)-3)&amp;"_t1"</f>
+      <c r="K3" s="12" t="str">
+        <f>LEFT(J3, LEN(J3)-3)&amp;"_t1"</f>
         <v>status__t1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J7" si="0">LEFT(I4, LEN(I4)-3)&amp;"_t1"</f>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K7" si="0">LEFT(J4, LEN(J4)-3)&amp;"_t1"</f>
         <v>conglome_t1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>vivienda_t1</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>hogar_t1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>codperso_t1</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="J8" s="12" t="str">
-        <f>LEFT(I8, LEN(I8)-3)&amp;"_t1"</f>
+      <c r="K8" s="12" t="str">
+        <f>LEFT(J8, LEN(J8)-3)&amp;"_t1"</f>
         <v>p207_t1</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="M8" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J9" s="12" t="str">
-        <f>LEFT(I9, LEN(I9)-3)&amp;"_t1"</f>
+      <c r="K9" s="12" t="str">
+        <f>LEFT(J9, LEN(J9)-3)&amp;"_t1"</f>
         <v>p208a_t1</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="M9" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="J10" s="12" t="str">
-        <f t="shared" ref="J10:J17" si="1">LEFT(I10, LEN(I10)-3)&amp;"_t1"</f>
+      <c r="K10" s="12" t="str">
+        <f t="shared" ref="K10:K17" si="1">LEFT(J10, LEN(J10)-3)&amp;"_t1"</f>
         <v>p209_t1</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="M10" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="K11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p501_t1</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="M11" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="K12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p507_t1</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="M12" s="20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="K13" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p510_t1</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="M13" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="K14" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p510a1_t1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="M14" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="K15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p510b_t1</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="M15" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="K16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p511a_t1</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="M16" s="20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="K17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>p512a_t1</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="M17" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="J18" s="12" t="str">
-        <f>LEFT(I18, LEN(I18)-3)&amp;"_t1"</f>
+      <c r="K18" s="12" t="str">
+        <f>LEFT(J18, LEN(J18)-3)&amp;"_t1"</f>
         <v>p513t_t1</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="M18" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="J19" s="12" t="str">
-        <f t="shared" ref="J19:J22" si="2">LEFT(I19, LEN(I19)-3)&amp;"_t1"</f>
+      <c r="K19" s="12" t="str">
+        <f t="shared" ref="K19:K22" si="2">LEFT(J19, LEN(J19)-3)&amp;"_t1"</f>
         <v>p513a1_t1</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="N19" s="21" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="K20" s="12" t="str">
         <f t="shared" si="2"/>
         <v>p513a2_t1</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="K21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>p514_t1</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="M21" s="26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="12" t="str">
+      <c r="K22" s="12" t="str">
         <f t="shared" si="2"/>
         <v>p519_t1</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="M22" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="J23" s="12" t="str">
-        <f>LEFT(I23, LEN(I23)-3)&amp;"_t1"</f>
+      <c r="K23" s="12" t="str">
+        <f>LEFT(J23, LEN(J23)-3)&amp;"_t1"</f>
         <v>p520_t1</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="M23" s="26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="J24" s="12" t="str">
-        <f>LEFT(I24, LEN(I24)-3)&amp;"_t1"</f>
+      <c r="K24" s="12" t="str">
+        <f>LEFT(J24, LEN(J24)-3)&amp;"_t1"</f>
         <v>p521a_t1</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="M24" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="J25" s="12" t="str">
-        <f t="shared" ref="J25:J88" si="3">LEFT(I25, LEN(I25)-3)&amp;"_t1"</f>
+      <c r="K25" s="12" t="str">
+        <f t="shared" ref="K25:K88" si="3">LEFT(J25, LEN(J25)-3)&amp;"_t1"</f>
         <v>p521c_t1</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="2" t="s">
+      <c r="M25" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="J26" s="12" t="str">
+      <c r="K26" s="13" t="str">
         <f t="shared" si="3"/>
         <v>p524a1_t1</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="8" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="2" t="s">
+      <c r="M26" s="16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="J27" s="12" t="str">
+      <c r="K27" s="13" t="str">
         <f t="shared" si="3"/>
         <v>p524a2_t1</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="15" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="J28" s="12" t="str">
+      <c r="K28" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p528_t1</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2" t="s">
+      <c r="M28" s="26" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J29" s="12" t="str">
+      <c r="K29" s="13" t="str">
         <f t="shared" si="3"/>
         <v>p530a_t1</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="8" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="2" t="s">
+      <c r="M29" s="16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="J30" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="J30" s="12" t="str">
+      <c r="K30" s="13" t="str">
         <f t="shared" si="3"/>
         <v>p530b_t1</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="8" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
       <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="J31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="J31" s="12" t="str">
+      <c r="K31" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p535_t1</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="M31" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="J32" s="12" t="str">
+      <c r="K32" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p558c_t1</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="M32" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="J33" s="12" t="str">
+      <c r="K33" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p558d_t1</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="M33" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>180</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="J34" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="J34" s="12" t="str">
+      <c r="K34" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p300a_t1</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="M34" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
       <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="J35" s="12" t="str">
+      <c r="K35" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p301a_t1</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="M35" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="J36" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="J36" s="12" t="str">
+      <c r="K36" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p302_t1</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="M36" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="J37" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="J37" s="12" t="str">
+      <c r="K37" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p307_t1</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="2" t="s">
+      <c r="M37" s="26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="J38" s="12" t="str">
+      <c r="K38" s="13" t="str">
         <f t="shared" si="3"/>
         <v>p313_t1</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="M38" s="27" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
       <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="J39" s="12" t="str">
+      <c r="K39" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p314a_t1</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="M39" s="26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="I40" s="8"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="J41" s="12" t="str">
+      <c r="K41" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p401f_t1</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="2" t="s">
+      <c r="M41" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
       <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="J43" s="12" t="str">
+      <c r="K43" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p401_t1</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="M43" s="26" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="J44" s="12" t="str">
+      <c r="K44" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4021_t1</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="M44" s="28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="J45" s="12" t="str">
+      <c r="K45" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4022_t1</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="M45" s="28"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="J46" s="12" t="str">
+      <c r="K46" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4023_t1</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="M46" s="28"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="J47" s="12" t="str">
+      <c r="K47" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4024_t1</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+      <c r="M47" s="28"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
       <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="J48" s="12" t="str">
+      <c r="K48" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4025_t1</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="M48" s="28"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="J49" s="12" t="str">
+      <c r="K49" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4191_t1</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="J50" s="12" t="str">
+      <c r="K50" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4192_t1</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="J51" s="12" t="str">
+      <c r="K51" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4193_t1</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="J52" s="12" t="str">
+      <c r="K52" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4194_t1</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
       <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="J53" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="J53" s="12" t="str">
+      <c r="K53" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4195_t1</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
       <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="J54" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="J54" s="12" t="str">
+      <c r="K54" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4196_t1</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
       <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="J55" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="J55" s="12" t="str">
+      <c r="K55" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4197_t1</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
       <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="J56" s="12" t="str">
+      <c r="K56" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p4198_t1</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="J57" s="12" t="str">
+      <c r="K57" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p101_t1</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="M57" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
       <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="J58" s="12" t="str">
+      <c r="K58" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p102_t1</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="M58" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
       <c r="B59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J59" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="J59" s="12" t="str">
+      <c r="K59" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p103_t1</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="M59" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
       <c r="B60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="J60" s="12" t="str">
+      <c r="K60" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p103a_t1</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="M60" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
       <c r="B61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="J61" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="J61" s="12" t="str">
+      <c r="K61" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p104_t1</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="M61" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
       <c r="B62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="J62" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="J62" s="12" t="str">
+      <c r="K62" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p104a_t1</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+      <c r="M62" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="J63" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="J63" s="12" t="str">
+      <c r="K63" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p105a_t1</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
+      <c r="M63" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="J64" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="J64" s="12" t="str">
+      <c r="K64" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p105b_t1</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="N64" t="s">
+      <c r="M64" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="O64" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="J65" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="J65" s="12" t="str">
+      <c r="K65" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p106_t1</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
+      <c r="M65" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
       <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="J66" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="J66" s="12" t="str">
+      <c r="K66" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p106b_t1</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="M66" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
       <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="J67" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="J67" s="12" t="str">
+      <c r="K67" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p107b1_t1</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="M67" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
       <c r="B68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="J68" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="J68" s="12" t="str">
+      <c r="K68" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p110_t1</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
+      <c r="M68" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
       <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="J69" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="J69" s="12" t="str">
+      <c r="K69" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p110a1_t1</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+      <c r="M69" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
       <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="23"/>
       <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="J71" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="J71" s="12" t="str">
+      <c r="K71" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p111a_t1</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
+      <c r="M71" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="J72" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="J72" s="12" t="str">
+      <c r="K72" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p112a_t1</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
+      <c r="M72" s="20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
       <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="J73" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="J73" s="12" t="str">
+      <c r="K73" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p1142_t1</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
+      <c r="M73" s="20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
       <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="J74" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="J74" s="12" t="str">
+      <c r="K74" s="12" t="str">
         <f t="shared" si="3"/>
         <v>p1144_t1</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
+      <c r="M74" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="J75" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="J75" s="12" t="str">
+      <c r="K75" s="12" t="str">
         <f t="shared" si="3"/>
         <v>percepho_t1</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
+      <c r="M75" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
       <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="J76" s="12" t="str">
+      <c r="K76" s="12" t="str">
         <f t="shared" si="3"/>
         <v>mieperho_t1</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="2" t="s">
+      <c r="M76" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="J77" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="J77" s="12" t="str">
+      <c r="K77" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingbruhd_t1</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="2" t="s">
+      <c r="M77" s="25" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
+      <c r="B78" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="J78" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="J78" s="12" t="str">
+      <c r="K78" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingindhd_t1</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="2" t="s">
+      <c r="M78" s="25"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
+      <c r="B79" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="J79" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="J79" s="12" t="str">
+      <c r="K79" s="19" t="str">
         <f t="shared" si="3"/>
         <v>insedthd_t1</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="2" t="s">
+      <c r="M79" s="25"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="J80" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="J80" s="12" t="str">
+      <c r="K80" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingseihd_t1</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="2" t="s">
+      <c r="M80" s="25"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="J81" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="J81" s="12" t="str">
+      <c r="K81" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingexthd_t1</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="2" t="s">
+      <c r="M81" s="25"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="J82" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="J82" s="12" t="str">
+      <c r="K82" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingtrahd_t1</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="L82" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="2" t="s">
+      <c r="M82" s="25"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="23"/>
+      <c r="B83" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="J83" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="J83" s="12" t="str">
+      <c r="K83" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingtexhd_t1</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="2" t="s">
+      <c r="M83" s="25"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="23"/>
+      <c r="B84" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="J84" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="J84" s="12" t="str">
+      <c r="K84" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingrenhd_t1</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="L84" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="2" t="s">
+      <c r="M84" s="25"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
+      <c r="B85" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="J85" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="J85" s="12" t="str">
+      <c r="K85" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ingmo1hd_t1</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="2" t="s">
+      <c r="M85" s="25"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
+      <c r="B86" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="J86" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="J86" s="12" t="str">
+      <c r="K86" s="19" t="str">
         <f t="shared" si="3"/>
         <v>inghog1d_t1</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="2" t="s">
+      <c r="M86" s="25"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
+      <c r="B87" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="D87" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="I87" s="12" t="s">
+      <c r="J87" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J87" s="12" t="str">
+      <c r="K87" s="19" t="str">
         <f t="shared" si="3"/>
         <v>gashog1d_t1</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="2" t="s">
+      <c r="M87" s="25"/>
+    </row>
+    <row r="88" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
+      <c r="B88" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="J88" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="J88" s="12" t="str">
+      <c r="K88" s="13" t="str">
         <f t="shared" si="3"/>
         <v>estrsocial_t1</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="2" t="s">
+      <c r="M88" s="16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
+      <c r="B89" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="I89" s="12" t="s">
+      <c r="J89" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="J89" s="12" t="str">
-        <f t="shared" ref="J89:J90" si="4">LEFT(I89, LEN(I89)-3)&amp;"_t1"</f>
+      <c r="K89" s="13" t="str">
+        <f t="shared" ref="K89:K90" si="4">LEFT(J89, LEN(J89)-3)&amp;"_t1"</f>
         <v>linea_t1</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="8" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
+      <c r="M89" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="23"/>
       <c r="B90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="J90" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="J90" s="12" t="str">
+      <c r="K90" s="12" t="str">
         <f t="shared" si="4"/>
         <v>pobreza_t1</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="L90" s="2" t="s">
         <v>528</v>
       </c>
+      <c r="M90" s="10" t="s">
+        <v>632</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N90" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}"/>
-  <mergeCells count="9">
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="D1:I1"/>
+  <autoFilter ref="A2:O90" xr:uid="{9AE1F47D-D58C-4138-A233-D19EFA101348}"/>
+  <mergeCells count="11">
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="A75:A90"/>
     <mergeCell ref="A57:A74"/>
     <mergeCell ref="A41:A56"/>
@@ -5219,6 +6043,8 @@
     <mergeCell ref="A11:A33"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="M77:M87"/>
+    <mergeCell ref="M44:M48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
